--- a/results/experiment1/Report.xlsx
+++ b/results/experiment1/Report.xlsx
@@ -8,27 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangzijiang/Dropbox (Davidson College)/Davidson/04 4th Year/CSC370 - Machine Reasoning/SokobanSolver_MR_Final/results/experiment1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3BC920-08D1-0742-811B-A86CF35B38C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F2A4A9-68EA-834D-8A89-AAF1075B4EFC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2380" yWindow="980" windowWidth="24240" windowHeight="17020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-280" yWindow="760" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sokwholes-output-fixedcsv" sheetId="1" r:id="rId1"/>
     <sheet name="Result" sheetId="2" r:id="rId2"/>
     <sheet name="Graphs" sheetId="4" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.5" hidden="1">Graphs!$B$17:$B$23</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Graphs!$M$16</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Graphs!$M$17:$M$23</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Graphs!$O$16</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Graphs!$O$17:$O$23</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">Graphs!$B$17:$B$23</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Graphs!$M$16</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">Graphs!$M$17:$M$23</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">Graphs!$O$16</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">Graphs!$O$17:$O$23</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -42,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="147">
   <si>
     <t>Puzzle Name</t>
   </si>
@@ -528,6 +516,62 @@
   <si>
     <t>Avg Soln Secs</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Table 1: Comparisons of Performances by BFS and IDA* on 30 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Microban</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Puzzles</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Table 2: Comparisons of Performances by BFS and IDA* on 30 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sokowhole</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Puzzles</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -536,7 +580,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000000000"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -683,6 +727,23 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="20"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1282,22 +1343,10 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1340,6 +1389,27 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2061,10 +2131,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="104"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="4"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -2075,7 +2145,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2088,20 +2158,20 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" i="1"/>
-              <a:t>Mircoban:</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" i="1" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Number of Puzzles Solved</a:t>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Graph 1: Mircoban: Number of Puzzles Solved</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15344640649838814"/>
+          <c:y val="3.6456055341260479E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2115,7 +2185,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2154,7 +2224,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2437,10 +2507,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="106"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="6"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -2451,7 +2521,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2464,15 +2534,23 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" i="1"/>
+              <a:rPr lang="en-US" sz="1600" i="0"/>
+              <a:t>Graph</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" i="0" baseline="0"/>
+              <a:t> 3: </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" i="1"/>
               <a:t>Sokowhole:</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" i="1" baseline="0"/>
+              <a:rPr lang="en-US" sz="1600" i="1" baseline="0"/>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1600"/>
               <a:t>Number of Puzzles Solved</a:t>
             </a:r>
           </a:p>
@@ -2491,7 +2569,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2530,7 +2608,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2782,10 +2860,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="101"/>
+      <c14:style val="104"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="1"/>
+      <c:style val="4"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -2796,7 +2874,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2809,20 +2887,26 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="1" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Graph 2: </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0" i="1" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t>Mircoban: </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1600"/>
               <a:t>Solving Time</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
               <a:t> v.s. Solution Length</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" sz="1600"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2839,7 +2923,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2878,8 +2962,8 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:tint val="88500"/>
+              <a:schemeClr val="accent2">
+                <a:tint val="77000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
@@ -2969,8 +3053,8 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:tint val="55000"/>
+              <a:schemeClr val="accent2">
+                <a:shade val="76000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
@@ -3254,10 +3338,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="101"/>
+      <c14:style val="106"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="1"/>
+      <c:style val="6"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -3268,7 +3352,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3281,18 +3365,22 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" i="1"/>
+              <a:rPr lang="en-US" sz="1600" i="0"/>
+              <a:t>Graph 4: </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" i="1"/>
               <a:t>Sokowhole: </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" i="0"/>
+              <a:rPr lang="en-US" sz="1600" i="0"/>
               <a:t>Solving</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" i="0" baseline="0"/>
+              <a:rPr lang="en-US" sz="1600" i="0" baseline="0"/>
               <a:t> Time v.s. Solution Length</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" i="0"/>
+            <a:endParaRPr lang="en-US" sz="1600" i="0"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3309,7 +3397,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3348,8 +3436,8 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:tint val="88500"/>
+              <a:schemeClr val="accent4">
+                <a:shade val="76000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
@@ -3439,8 +3527,8 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:tint val="55000"/>
+              <a:schemeClr val="accent4">
+                <a:tint val="77000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
@@ -3798,136 +3886,26 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
-  <a:schemeClr val="dk1"/>
-  <cs:variation>
-    <a:tint val="88500"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="55000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="75000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="98500"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="80000"/>
-  </cs:variation>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="22">
+  <a:schemeClr val="accent2"/>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
-  <a:schemeClr val="dk1"/>
-  <cs:variation>
-    <a:tint val="88500"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="55000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="75000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="98500"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="80000"/>
-  </cs:variation>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
+  <a:schemeClr val="accent4"/>
 </cs:colorStyle>
 </file>
 
@@ -7119,15 +7097,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>577850</xdr:colOff>
+      <xdr:colOff>120648</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>196850</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>56269</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>146051</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7157,15 +7135,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>565150</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>133348</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>184150</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>68969</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>69851</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7194,16 +7172,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>425448</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>806450</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>107951</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7230,16 +7208,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>438148</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>177799</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14130,7 +14108,7 @@
         <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="F169" s="28">
+      <c r="F169" s="24">
         <f>SUMIFS($F$2:$F$161, $D$2:$D$161, "Euclidean", $E$2:$E$161, "Fixed (1)")</f>
         <v>3789</v>
       </c>
@@ -14138,7 +14116,7 @@
         <f>(F169 / B169)</f>
         <v>189.45</v>
       </c>
-      <c r="K169" s="28">
+      <c r="K169" s="24">
         <f>SUMIFS($H$2:$H$161, $D$2:$D$161, "Euclidean", $E$2:$E$161, "Fixed (1)")</f>
         <v>2621</v>
       </c>
@@ -14146,7 +14124,7 @@
         <f t="shared" si="4"/>
         <v>104.84</v>
       </c>
-      <c r="N169" s="28">
+      <c r="N169" s="24">
         <f>SUMIFS($I$2:$I$161, $D$2:$D$161, "Euclidean", $E$2:$E$161, "Fixed (1)")</f>
         <v>43976</v>
       </c>
@@ -14154,7 +14132,7 @@
         <f t="shared" si="5"/>
         <v>1759.04</v>
       </c>
-      <c r="Q169" s="28">
+      <c r="Q169" s="24">
         <f>SUMIFS($J$2:$J$161, $D$2:$D$161, "Euclidean", $E$2:$E$161, "Fixed (1)")</f>
         <v>206.20237756000003</v>
       </c>
@@ -14162,7 +14140,7 @@
         <f t="shared" si="6"/>
         <v>8.2480951024000007</v>
       </c>
-      <c r="T169" s="28">
+      <c r="T169" s="24">
         <f>SUMIFS($L$2:$L$161, $D$2:$D$161, "Euclidean", $E$2:$E$161, "Fixed (1)")</f>
         <v>436</v>
       </c>
@@ -14186,7 +14164,7 @@
         <f t="shared" si="3"/>
         <v>0.76666666666666672</v>
       </c>
-      <c r="F170" s="28">
+      <c r="F170" s="24">
         <f>SUMIFS($F$2:$F$161, $D$2:$D$161, "Euclidean", $E$2:$E$161, "Fixed (4)")</f>
         <v>11278</v>
       </c>
@@ -14194,7 +14172,7 @@
         <f t="shared" ref="G170:G171" si="8">(F170 / B170)</f>
         <v>490.3478260869565</v>
       </c>
-      <c r="K170" s="28">
+      <c r="K170" s="24">
         <f>SUMIFS($H$2:$H$161, $D$2:$D$161, "Euclidean", $E$2:$E$161, "Fixed (4)")</f>
         <v>2393</v>
       </c>
@@ -14202,7 +14180,7 @@
         <f t="shared" si="4"/>
         <v>95.72</v>
       </c>
-      <c r="N170" s="28">
+      <c r="N170" s="24">
         <f>SUMIFS($I$2:$I$161, $D$2:$D$161, "Euclidean", $E$2:$E$161, "Fixed (4)")</f>
         <v>40416</v>
       </c>
@@ -14210,7 +14188,7 @@
         <f t="shared" si="5"/>
         <v>1616.64</v>
       </c>
-      <c r="Q170" s="28">
+      <c r="Q170" s="24">
         <f>SUMIFS($J$2:$J$161, $D$2:$D$161, "Euclidean", $E$2:$E$161, "Fixed (4)")</f>
         <v>237.52572703300001</v>
       </c>
@@ -14218,7 +14196,7 @@
         <f t="shared" si="6"/>
         <v>9.5010290813200005</v>
       </c>
-      <c r="T170" s="28">
+      <c r="T170" s="24">
         <f>SUMIFS($L$2:$L$161, $D$2:$D$161, "Euclidean", $E$2:$E$161, "Fixed (4)")</f>
         <v>569</v>
       </c>
@@ -14242,7 +14220,7 @@
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F171" s="28">
+      <c r="F171" s="24">
         <f>SUMIFS($F$2:$F$161, $D$2:$D$161, "Euclidean", $E$3:$E$162, "Dynamic")</f>
         <v>7602</v>
       </c>
@@ -14250,7 +14228,7 @@
         <f t="shared" si="8"/>
         <v>362</v>
       </c>
-      <c r="K171" s="28">
+      <c r="K171" s="24">
         <f>SUMIFS($H$2:$H$161, $D$2:$D$161, "Euclidean", $E$3:$E$162, "Dynamic")</f>
         <v>1471</v>
       </c>
@@ -14258,7 +14236,7 @@
         <f t="shared" si="4"/>
         <v>58.84</v>
       </c>
-      <c r="N171" s="28">
+      <c r="N171" s="24">
         <f>SUMIFS($I$2:$I$161, $D$2:$D$161, "Euclidean", $E$3:$E$162, "Dynamic")</f>
         <v>24548</v>
       </c>
@@ -14266,7 +14244,7 @@
         <f t="shared" si="5"/>
         <v>981.92</v>
       </c>
-      <c r="Q171" s="28">
+      <c r="Q171" s="24">
         <f>SUMIFS($J$2:$J$161, $D$2:$D$161, "Euclidean", $E$3:$E$162, "Dynamic")</f>
         <v>139.05307888599998</v>
       </c>
@@ -14274,7 +14252,7 @@
         <f t="shared" si="6"/>
         <v>5.5621231554399992</v>
       </c>
-      <c r="T171" s="28">
+      <c r="T171" s="24">
         <f>SUMIFS($L$2:$L$161, $D$2:$D$161, "Euclidean", $E$3:$E$162, "Dynamic")</f>
         <v>519</v>
       </c>
@@ -14342,8 +14320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B7A9E83-ACF7-2C48-AF62-F87EA40ABD55}">
   <dimension ref="B1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14352,810 +14330,806 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="36"/>
+    <row r="2" spans="2:15" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="3" t="s">
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="3" t="s">
+      <c r="G3" s="35"/>
+      <c r="H3" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="3" t="s">
+      <c r="I3" s="35"/>
+      <c r="J3" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="3" t="s">
+      <c r="K3" s="35"/>
+      <c r="L3" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="3" t="s">
+      <c r="M3" s="35"/>
+      <c r="N3" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="O3" s="6"/>
+      <c r="O3" s="36"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="N4" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="8" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="27">
         <v>27</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="11">
         <v>30</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="12">
         <v>0.9</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="10">
         <v>16413</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="13">
         <v>607.88888888888891</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="10">
         <v>3096</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="13">
         <v>114.66666666666667</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="10">
         <v>70217</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="13">
         <v>2600.6296296296296</v>
       </c>
-      <c r="L5" s="18">
+      <c r="L5" s="14">
         <v>347.98502039909312</v>
       </c>
-      <c r="M5" s="17">
+      <c r="M5" s="13">
         <v>12.8883340888553</v>
       </c>
-      <c r="N5" s="14">
+      <c r="N5" s="10">
         <v>1304</v>
       </c>
-      <c r="O5" s="19">
+      <c r="O5" s="15">
         <v>48.296296296296298</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="10">
         <v>19</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="11">
         <v>30</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="12">
         <v>0.6333333333333333</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="10">
         <v>9142</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="13">
         <v>481.15789473684208</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="10">
         <v>2163</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="13">
         <v>113.84210526315789</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="10">
         <v>73463</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="13">
         <v>3866.4736842105262</v>
       </c>
-      <c r="L6" s="18">
+      <c r="L6" s="14">
         <v>313.71195602416947</v>
       </c>
-      <c r="M6" s="17">
+      <c r="M6" s="13">
         <v>16.511155580219445</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N6" s="10">
         <v>678</v>
       </c>
-      <c r="O6" s="30">
+      <c r="O6" s="26">
         <v>35.684210526315802</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="10">
         <v>21</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="11">
         <v>30</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="12">
         <v>0.7</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="10">
         <v>11117</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="13">
         <v>529.38095238095241</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="10">
         <v>1814</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="13">
         <v>86.38095238095238</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="10">
         <v>52067</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="13">
         <v>2479.3809523809523</v>
       </c>
-      <c r="L7" s="18">
+      <c r="L7" s="14">
         <v>254.65401196479749</v>
       </c>
-      <c r="M7" s="29">
+      <c r="M7" s="25">
         <v>12.126381522133213</v>
       </c>
-      <c r="N7" s="14">
+      <c r="N7" s="10">
         <v>901</v>
       </c>
-      <c r="O7" s="19">
+      <c r="O7" s="15">
         <v>42.904761904761905</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="10">
         <v>19</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="11">
         <v>30</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="12">
         <v>0.6333333333333333</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="10">
         <v>10135</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="13">
         <v>533.42105263157896</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="10">
         <v>2241</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="13">
         <v>117.94736842105263</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="10">
         <v>65918</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="13">
         <v>3469.3684210526317</v>
       </c>
-      <c r="L8" s="18">
+      <c r="L8" s="14">
         <v>296.80949282646122</v>
       </c>
-      <c r="M8" s="17">
+      <c r="M8" s="13">
         <v>15.621552254024275</v>
       </c>
-      <c r="N8" s="14">
+      <c r="N8" s="10">
         <v>700</v>
       </c>
-      <c r="O8" s="19">
+      <c r="O8" s="15">
         <v>36.842105263157897</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="10">
         <v>12</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="11">
         <v>30</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="12">
         <v>0.4</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="10">
         <v>6030</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="13">
         <v>502.5</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="10">
         <v>1877</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="13">
         <v>156.41666666666666</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="10">
         <v>54073</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="13">
         <v>4506.083333333333</v>
       </c>
-      <c r="L9" s="18">
+      <c r="L9" s="14">
         <v>220.85452294349639</v>
       </c>
-      <c r="M9" s="17">
+      <c r="M9" s="13">
         <v>18.4045435786247</v>
       </c>
-      <c r="N9" s="14">
+      <c r="N9" s="10">
         <v>391</v>
       </c>
-      <c r="O9" s="20">
+      <c r="O9" s="16">
         <v>32.583333333333336</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="10">
         <v>21</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="11">
         <v>30</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="12">
         <v>0.7</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="10">
         <v>11569</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="13">
         <v>550.90476190476193</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="10">
         <v>1942</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="13">
         <v>92.476190476190482</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="10">
         <v>61388</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="13">
         <v>2923.2380952380954</v>
       </c>
-      <c r="L10" s="18">
+      <c r="L10" s="14">
         <v>305.465868234634</v>
       </c>
-      <c r="M10" s="17">
+      <c r="M10" s="13">
         <v>14.545993725458763</v>
       </c>
-      <c r="N10" s="14">
+      <c r="N10" s="10">
         <v>866</v>
       </c>
-      <c r="O10" s="19">
+      <c r="O10" s="15">
         <v>41.238095238095241</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="18">
         <v>14</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="19">
         <v>30</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="20">
         <v>0.46666666666666667</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="18">
         <v>8037</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="21">
         <v>574.07142857142856</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="18">
         <v>2710</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="21">
         <v>193.57142857142858</v>
       </c>
-      <c r="J11" s="22">
+      <c r="J11" s="18">
         <v>67637</v>
       </c>
-      <c r="K11" s="25">
+      <c r="K11" s="21">
         <v>4831.2142857142853</v>
       </c>
-      <c r="L11" s="26">
+      <c r="L11" s="22">
         <v>288.99031686782808</v>
       </c>
-      <c r="M11" s="25">
+      <c r="M11" s="21">
         <v>20.642165490559147</v>
       </c>
-      <c r="N11" s="22">
+      <c r="N11" s="18">
         <v>477</v>
       </c>
-      <c r="O11" s="27">
+      <c r="O11" s="23">
         <v>34.071428571428569</v>
       </c>
     </row>
     <row r="13" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="36"/>
+    <row r="14" spans="2:15" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="39"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="3" t="s">
+      <c r="D15" s="34"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="3" t="s">
+      <c r="G15" s="35"/>
+      <c r="H15" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="3" t="s">
+      <c r="I15" s="35"/>
+      <c r="J15" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="3" t="s">
+      <c r="K15" s="35"/>
+      <c r="L15" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="M15" s="5"/>
-      <c r="N15" s="3" t="s">
+      <c r="M15" s="35"/>
+      <c r="N15" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="O15" s="6"/>
+      <c r="O15" s="36"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="9" t="s">
+      <c r="C16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="I16" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J16" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="K16" s="10" t="s">
+      <c r="K16" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="L16" s="8" t="s">
+      <c r="L16" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="M16" s="10" t="s">
+      <c r="M16" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="N16" s="8" t="s">
+      <c r="N16" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="O16" s="12" t="s">
+      <c r="O16" s="8" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="10">
         <v>25</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="11">
         <v>30</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="12">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="10">
         <v>63162</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="13">
         <v>2526.48</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="10">
         <v>335</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="13">
         <v>13.4</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="10">
         <v>18717</v>
       </c>
-      <c r="K17" s="17">
+      <c r="K17" s="13">
         <v>748.68</v>
       </c>
-      <c r="L17" s="18">
+      <c r="L17" s="14">
         <v>163.44187330700001</v>
       </c>
-      <c r="M17" s="17">
+      <c r="M17" s="13">
         <v>6.5376749322800007</v>
       </c>
-      <c r="N17" s="14">
+      <c r="N17" s="10">
         <v>859</v>
       </c>
-      <c r="O17" s="19">
+      <c r="O17" s="15">
         <v>34.36</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="10">
         <v>21</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="11">
         <v>30</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="12">
         <v>0.7</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="10">
         <v>6263</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="13">
         <v>298.23809523809524</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="10">
         <v>1719</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="13">
         <v>68.760000000000005</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="10">
         <v>34715</v>
       </c>
-      <c r="K18" s="17">
+      <c r="K18" s="13">
         <v>1388.6</v>
       </c>
-      <c r="L18" s="18">
+      <c r="L18" s="14">
         <v>173.443422328</v>
       </c>
-      <c r="M18" s="17">
+      <c r="M18" s="13">
         <v>6.9377368931200003</v>
       </c>
-      <c r="N18" s="14">
+      <c r="N18" s="10">
         <v>470</v>
       </c>
-      <c r="O18" s="30">
+      <c r="O18" s="26">
         <v>18.8</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C19" s="31">
+      <c r="C19" s="27">
         <v>26</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="11">
         <v>30</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="12">
         <v>0.8666666666666667</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="10">
         <v>28666</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="13">
         <v>1102.5384615384614</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="10">
         <v>5564</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="13">
         <v>222.56</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="10">
         <v>69785</v>
       </c>
-      <c r="K19" s="17">
+      <c r="K19" s="13">
         <v>2791.4</v>
       </c>
-      <c r="L19" s="18">
+      <c r="L19" s="14">
         <v>459.18132976999999</v>
       </c>
-      <c r="M19" s="17">
+      <c r="M19" s="13">
         <v>18.3672531908</v>
       </c>
-      <c r="N19" s="14">
+      <c r="N19" s="10">
         <v>666</v>
       </c>
-      <c r="O19" s="19">
+      <c r="O19" s="15">
         <v>26.64</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="10">
         <v>24</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="11">
         <v>30</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="12">
         <v>0.8</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="10">
         <v>13765</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="13">
         <v>573.54166666666663</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="10">
         <v>3600</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I20" s="13">
         <v>144</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="10">
         <v>55687</v>
       </c>
-      <c r="K20" s="17">
+      <c r="K20" s="13">
         <v>2227.48</v>
       </c>
-      <c r="L20" s="18">
+      <c r="L20" s="14">
         <v>314.17527223799999</v>
       </c>
-      <c r="M20" s="32">
+      <c r="M20" s="28">
         <v>12.567010889519999</v>
       </c>
-      <c r="N20" s="14">
+      <c r="N20" s="10">
         <v>532</v>
       </c>
-      <c r="O20" s="19">
+      <c r="O20" s="15">
         <v>21.28</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="10">
         <v>20</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="11">
         <v>30</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="12">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="10">
         <v>3789</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21" s="13">
         <v>189.45</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="10">
         <v>2621</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I21" s="13">
         <v>104.84</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="10">
         <v>43976</v>
       </c>
-      <c r="K21" s="17">
+      <c r="K21" s="13">
         <v>1759.04</v>
       </c>
-      <c r="L21" s="18">
+      <c r="L21" s="14">
         <v>206.20237756000003</v>
       </c>
-      <c r="M21" s="17">
+      <c r="M21" s="13">
         <v>8.2480951024000007</v>
       </c>
-      <c r="N21" s="14">
+      <c r="N21" s="10">
         <v>436</v>
       </c>
-      <c r="O21" s="20">
+      <c r="O21" s="16">
         <v>17.440000000000001</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="10">
         <v>23</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="11">
         <v>30</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="12">
         <v>0.76666666666666672</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="10">
         <v>11278</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22" s="13">
         <v>490.3478260869565</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H22" s="10">
         <v>2393</v>
       </c>
-      <c r="I22" s="17">
+      <c r="I22" s="13">
         <v>95.72</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J22" s="10">
         <v>40416</v>
       </c>
-      <c r="K22" s="17">
+      <c r="K22" s="13">
         <v>1616.64</v>
       </c>
-      <c r="L22" s="18">
+      <c r="L22" s="14">
         <v>237.52572703300001</v>
       </c>
-      <c r="M22" s="17">
+      <c r="M22" s="13">
         <v>9.5010290813200005</v>
       </c>
-      <c r="N22" s="14">
+      <c r="N22" s="10">
         <v>569</v>
       </c>
-      <c r="O22" s="19">
+      <c r="O22" s="15">
         <v>22.76</v>
       </c>
     </row>
     <row r="23" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="18">
         <v>21</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="19">
         <v>30</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="20">
         <v>0.7</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F23" s="18">
         <v>7602</v>
       </c>
-      <c r="G23" s="25">
+      <c r="G23" s="21">
         <v>362</v>
       </c>
-      <c r="H23" s="22">
+      <c r="H23" s="18">
         <v>1471</v>
       </c>
-      <c r="I23" s="25">
+      <c r="I23" s="21">
         <v>58.84</v>
       </c>
-      <c r="J23" s="22">
+      <c r="J23" s="18">
         <v>24548</v>
       </c>
-      <c r="K23" s="25">
+      <c r="K23" s="21">
         <v>981.92</v>
       </c>
-      <c r="L23" s="26">
+      <c r="L23" s="22">
         <v>139.05307888599998</v>
       </c>
-      <c r="M23" s="33">
+      <c r="M23" s="29">
         <v>5.5621231554399992</v>
       </c>
-      <c r="N23" s="22">
+      <c r="N23" s="18">
         <v>519</v>
       </c>
-      <c r="O23" s="27">
+      <c r="O23" s="23">
         <v>20.76</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
+  <mergeCells count="14">
+    <mergeCell ref="B2:O2"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:G3"/>
@@ -15163,6 +15137,12 @@
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="N3:O3"/>
+    <mergeCell ref="B14:O14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15173,8 +15153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F679283-28DE-324B-A6EA-2202080C1560}">
   <dimension ref="B1:O23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H43" sqref="H43:I47"/>
+    <sheetView tabSelected="1" topLeftCell="F22" zoomScale="125" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15185,809 +15165,804 @@
   <sheetData>
     <row r="1" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="36"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="3" t="s">
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="3" t="s">
+      <c r="G3" s="35"/>
+      <c r="H3" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="3" t="s">
+      <c r="I3" s="35"/>
+      <c r="J3" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="3" t="s">
+      <c r="K3" s="35"/>
+      <c r="L3" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="3" t="s">
+      <c r="M3" s="35"/>
+      <c r="N3" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="O3" s="6"/>
+      <c r="O3" s="36"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="N4" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="8" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="27">
         <v>27</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="11">
         <v>30</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="12">
         <v>0.9</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="10">
         <v>16413</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="13">
         <v>607.88888888888891</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="10">
         <v>3096</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="13">
         <v>114.66666666666667</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="10">
         <v>70217</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="13">
         <v>2600.6296296296296</v>
       </c>
-      <c r="L5" s="18">
+      <c r="L5" s="14">
         <v>347.98502039909312</v>
       </c>
-      <c r="M5" s="17">
+      <c r="M5" s="13">
         <v>12.8883340888553</v>
       </c>
-      <c r="N5" s="14">
+      <c r="N5" s="10">
         <v>1304</v>
       </c>
-      <c r="O5" s="19">
+      <c r="O5" s="15">
         <v>48.296296296296298</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="10">
         <v>19</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="11">
         <v>30</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="12">
         <v>0.6333333333333333</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="10">
         <v>9142</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="13">
         <v>481.15789473684208</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="10">
         <v>2163</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="13">
         <v>113.84210526315789</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="10">
         <v>73463</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="13">
         <v>3866.4736842105262</v>
       </c>
-      <c r="L6" s="18">
+      <c r="L6" s="14">
         <v>313.71195602416947</v>
       </c>
-      <c r="M6" s="17">
+      <c r="M6" s="13">
         <v>16.511155580219445</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N6" s="10">
         <v>678</v>
       </c>
-      <c r="O6" s="30">
+      <c r="O6" s="26">
         <v>35.684210526315802</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="10">
         <v>21</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="11">
         <v>30</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="12">
         <v>0.7</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="10">
         <v>11117</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="13">
         <v>529.38095238095241</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="10">
         <v>1814</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="13">
         <v>86.38095238095238</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="10">
         <v>52067</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="13">
         <v>2479.3809523809523</v>
       </c>
-      <c r="L7" s="18">
+      <c r="L7" s="14">
         <v>254.65401196479749</v>
       </c>
-      <c r="M7" s="29">
+      <c r="M7" s="25">
         <v>12.126381522133213</v>
       </c>
-      <c r="N7" s="14">
+      <c r="N7" s="10">
         <v>901</v>
       </c>
-      <c r="O7" s="19">
+      <c r="O7" s="15">
         <v>42.904761904761905</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="10">
         <v>19</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="11">
         <v>30</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="12">
         <v>0.6333333333333333</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="10">
         <v>10135</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="13">
         <v>533.42105263157896</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="10">
         <v>2241</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="13">
         <v>117.94736842105263</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="10">
         <v>65918</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="13">
         <v>3469.3684210526317</v>
       </c>
-      <c r="L8" s="18">
+      <c r="L8" s="14">
         <v>296.80949282646122</v>
       </c>
-      <c r="M8" s="17">
+      <c r="M8" s="13">
         <v>15.621552254024275</v>
       </c>
-      <c r="N8" s="14">
+      <c r="N8" s="10">
         <v>700</v>
       </c>
-      <c r="O8" s="19">
+      <c r="O8" s="15">
         <v>36.842105263157897</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="10">
         <v>12</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="11">
         <v>30</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="12">
         <v>0.4</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="10">
         <v>6030</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="13">
         <v>502.5</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="10">
         <v>1877</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="13">
         <v>156.41666666666666</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="10">
         <v>54073</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="13">
         <v>4506.083333333333</v>
       </c>
-      <c r="L9" s="18">
+      <c r="L9" s="14">
         <v>220.85452294349639</v>
       </c>
-      <c r="M9" s="17">
+      <c r="M9" s="13">
         <v>18.4045435786247</v>
       </c>
-      <c r="N9" s="14">
+      <c r="N9" s="10">
         <v>391</v>
       </c>
-      <c r="O9" s="20">
+      <c r="O9" s="16">
         <v>32.583333333333336</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="10">
         <v>21</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="11">
         <v>30</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="12">
         <v>0.7</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="10">
         <v>11569</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="13">
         <v>550.90476190476193</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="10">
         <v>1942</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="13">
         <v>92.476190476190482</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="10">
         <v>61388</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="13">
         <v>2923.2380952380954</v>
       </c>
-      <c r="L10" s="18">
+      <c r="L10" s="14">
         <v>305.465868234634</v>
       </c>
-      <c r="M10" s="17">
+      <c r="M10" s="13">
         <v>14.545993725458763</v>
       </c>
-      <c r="N10" s="14">
+      <c r="N10" s="10">
         <v>866</v>
       </c>
-      <c r="O10" s="19">
+      <c r="O10" s="15">
         <v>41.238095238095241</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="18">
         <v>14</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="19">
         <v>30</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="20">
         <v>0.46666666666666667</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="18">
         <v>8037</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="21">
         <v>574.07142857142856</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="18">
         <v>2710</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="21">
         <v>193.57142857142858</v>
       </c>
-      <c r="J11" s="22">
+      <c r="J11" s="18">
         <v>67637</v>
       </c>
-      <c r="K11" s="25">
+      <c r="K11" s="21">
         <v>4831.2142857142853</v>
       </c>
-      <c r="L11" s="26">
+      <c r="L11" s="22">
         <v>288.99031686782808</v>
       </c>
-      <c r="M11" s="25">
+      <c r="M11" s="21">
         <v>20.642165490559147</v>
       </c>
-      <c r="N11" s="22">
+      <c r="N11" s="18">
         <v>477</v>
       </c>
-      <c r="O11" s="27">
+      <c r="O11" s="23">
         <v>34.071428571428569</v>
       </c>
     </row>
     <row r="13" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="36"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="32"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="3" t="s">
+      <c r="D15" s="34"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="3" t="s">
+      <c r="G15" s="35"/>
+      <c r="H15" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="3" t="s">
+      <c r="I15" s="35"/>
+      <c r="J15" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="3" t="s">
+      <c r="K15" s="35"/>
+      <c r="L15" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="M15" s="5"/>
-      <c r="N15" s="3" t="s">
+      <c r="M15" s="35"/>
+      <c r="N15" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="O15" s="6"/>
+      <c r="O15" s="36"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="9" t="s">
+      <c r="C16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="I16" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J16" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="K16" s="10" t="s">
+      <c r="K16" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="L16" s="8" t="s">
+      <c r="L16" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="M16" s="10" t="s">
+      <c r="M16" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="N16" s="8" t="s">
+      <c r="N16" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="O16" s="12" t="s">
+      <c r="O16" s="8" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="10">
         <v>25</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="11">
         <v>30</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="12">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="10">
         <v>63162</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="13">
         <v>2526.48</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="10">
         <v>335</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="13">
         <v>13.4</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="10">
         <v>18717</v>
       </c>
-      <c r="K17" s="17">
+      <c r="K17" s="13">
         <v>748.68</v>
       </c>
-      <c r="L17" s="18">
+      <c r="L17" s="14">
         <v>163.44187330700001</v>
       </c>
-      <c r="M17" s="17">
+      <c r="M17" s="13">
         <v>6.5376749322800007</v>
       </c>
-      <c r="N17" s="14">
+      <c r="N17" s="10">
         <v>859</v>
       </c>
-      <c r="O17" s="19">
+      <c r="O17" s="15">
         <v>34.36</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="10">
         <v>21</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="11">
         <v>30</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="12">
         <v>0.7</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="10">
         <v>6263</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="13">
         <v>298.23809523809524</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="10">
         <v>1719</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="13">
         <v>68.760000000000005</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="10">
         <v>34715</v>
       </c>
-      <c r="K18" s="17">
+      <c r="K18" s="13">
         <v>1388.6</v>
       </c>
-      <c r="L18" s="18">
+      <c r="L18" s="14">
         <v>173.443422328</v>
       </c>
-      <c r="M18" s="17">
+      <c r="M18" s="13">
         <v>6.9377368931200003</v>
       </c>
-      <c r="N18" s="14">
+      <c r="N18" s="10">
         <v>470</v>
       </c>
-      <c r="O18" s="30">
+      <c r="O18" s="26">
         <v>18.8</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C19" s="31">
+      <c r="C19" s="27">
         <v>26</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="11">
         <v>30</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="12">
         <v>0.8666666666666667</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="10">
         <v>28666</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="13">
         <v>1102.5384615384614</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="10">
         <v>5564</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="13">
         <v>222.56</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="10">
         <v>69785</v>
       </c>
-      <c r="K19" s="17">
+      <c r="K19" s="13">
         <v>2791.4</v>
       </c>
-      <c r="L19" s="18">
+      <c r="L19" s="14">
         <v>459.18132976999999</v>
       </c>
-      <c r="M19" s="17">
+      <c r="M19" s="13">
         <v>18.3672531908</v>
       </c>
-      <c r="N19" s="14">
+      <c r="N19" s="10">
         <v>666</v>
       </c>
-      <c r="O19" s="19">
+      <c r="O19" s="15">
         <v>26.64</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="10">
         <v>24</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="11">
         <v>30</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="12">
         <v>0.8</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="10">
         <v>13765</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="13">
         <v>573.54166666666663</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="10">
         <v>3600</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I20" s="13">
         <v>144</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="10">
         <v>55687</v>
       </c>
-      <c r="K20" s="17">
+      <c r="K20" s="13">
         <v>2227.48</v>
       </c>
-      <c r="L20" s="18">
+      <c r="L20" s="14">
         <v>314.17527223799999</v>
       </c>
-      <c r="M20" s="32">
+      <c r="M20" s="28">
         <v>12.567010889519999</v>
       </c>
-      <c r="N20" s="14">
+      <c r="N20" s="10">
         <v>532</v>
       </c>
-      <c r="O20" s="19">
+      <c r="O20" s="15">
         <v>21.28</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="10">
         <v>20</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="11">
         <v>30</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="12">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="10">
         <v>3789</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21" s="13">
         <v>189.45</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="10">
         <v>2621</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I21" s="13">
         <v>104.84</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="10">
         <v>43976</v>
       </c>
-      <c r="K21" s="17">
+      <c r="K21" s="13">
         <v>1759.04</v>
       </c>
-      <c r="L21" s="18">
+      <c r="L21" s="14">
         <v>206.20237756000003</v>
       </c>
-      <c r="M21" s="17">
+      <c r="M21" s="13">
         <v>8.2480951024000007</v>
       </c>
-      <c r="N21" s="14">
+      <c r="N21" s="10">
         <v>436</v>
       </c>
-      <c r="O21" s="20">
+      <c r="O21" s="16">
         <v>17.440000000000001</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="10">
         <v>23</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="11">
         <v>30</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="12">
         <v>0.76666666666666672</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="10">
         <v>11278</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22" s="13">
         <v>490.3478260869565</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H22" s="10">
         <v>2393</v>
       </c>
-      <c r="I22" s="17">
+      <c r="I22" s="13">
         <v>95.72</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J22" s="10">
         <v>40416</v>
       </c>
-      <c r="K22" s="17">
+      <c r="K22" s="13">
         <v>1616.64</v>
       </c>
-      <c r="L22" s="18">
+      <c r="L22" s="14">
         <v>237.52572703300001</v>
       </c>
-      <c r="M22" s="17">
+      <c r="M22" s="13">
         <v>9.5010290813200005</v>
       </c>
-      <c r="N22" s="14">
+      <c r="N22" s="10">
         <v>569</v>
       </c>
-      <c r="O22" s="19">
+      <c r="O22" s="15">
         <v>22.76</v>
       </c>
     </row>
     <row r="23" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="18">
         <v>21</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="19">
         <v>30</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="20">
         <v>0.7</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F23" s="18">
         <v>7602</v>
       </c>
-      <c r="G23" s="25">
+      <c r="G23" s="21">
         <v>362</v>
       </c>
-      <c r="H23" s="22">
+      <c r="H23" s="18">
         <v>1471</v>
       </c>
-      <c r="I23" s="25">
+      <c r="I23" s="21">
         <v>58.84</v>
       </c>
-      <c r="J23" s="22">
+      <c r="J23" s="18">
         <v>24548</v>
       </c>
-      <c r="K23" s="25">
+      <c r="K23" s="21">
         <v>981.92</v>
       </c>
-      <c r="L23" s="26">
+      <c r="L23" s="22">
         <v>139.05307888599998</v>
       </c>
-      <c r="M23" s="33">
+      <c r="M23" s="29">
         <v>5.5621231554399992</v>
       </c>
-      <c r="N23" s="22">
+      <c r="N23" s="18">
         <v>519</v>
       </c>
-      <c r="O23" s="27">
+      <c r="O23" s="23">
         <v>20.76</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:G3"/>
@@ -15995,6 +15970,11 @@
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="N3:O3"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
